--- a/public/changes.xlsx
+++ b/public/changes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Website changes</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Bifurcation to be made for sellers for business( a dropdown to be inserted asking if GSTIN is available or not….if available then GSTIN would be compulsory) and non-business(use api)</t>
+  </si>
+  <si>
+    <t>implemented api needed</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -389,6 +392,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -516,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +719,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,16 +743,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -758,54 +761,54 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,7 +830,7 @@
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,25 +846,25 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1181,13 +1184,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C68"/>
+  <dimension ref="A5:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.5545454545455" customWidth="1"/>
     <col min="2" max="2" width="149.445454545455" customWidth="1"/>
@@ -1203,12 +1206,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1216,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1224,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1232,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1240,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1248,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1256,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="159.5" spans="1:2">
@@ -1264,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1272,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1280,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1288,15 +1294,18 @@
         <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="87" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="87" spans="1:5">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1304,7 +1313,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1312,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1320,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1328,7 +1337,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1336,7 +1345,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1344,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1352,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1360,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="29" spans="1:2">
@@ -1368,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1376,12 +1385,12 @@
         <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="5"/>
     </row>
@@ -1390,15 +1399,15 @@
         <v>1</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="72.5" spans="2:3">
       <c r="B31" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1406,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="29" spans="1:2">
@@ -1414,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1422,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1430,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1438,7 +1447,7 @@
         <v>6</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="29" spans="1:2">
@@ -1446,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="29" spans="1:2">
@@ -1454,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:2">
@@ -1462,7 +1471,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5"/>
     </row>
@@ -1471,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1479,7 +1488,7 @@
         <v>2</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1487,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1495,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1503,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1511,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1519,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1527,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1535,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -1567,25 +1576,25 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1593,12 +1602,12 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/public/changes.xlsx
+++ b/public/changes.xlsx
@@ -1187,7 +1187,7 @@
   <dimension ref="A5:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1237,7 +1237,7 @@
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/public/changes.xlsx
+++ b/public/changes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Website changes</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Post a question and review to be added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git </t>
   </si>
   <si>
     <t>Let AI write for me along with virtual tryon</t>
@@ -1186,8 +1189,8 @@
   <sheetPr/>
   <dimension ref="A5:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1511,7 +1514,7 @@
       <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1554,7 +1557,9 @@
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="5"/>
@@ -1576,25 +1581,25 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1602,12 +1607,12 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/public/changes.xlsx
+++ b/public/changes.xlsx
@@ -1190,7 +1190,7 @@
   <dimension ref="A5:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1482,7 +1482,7 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>37</v>
       </c>
     </row>
